--- a/location_points.xlsx
+++ b/location_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\TAMU\Teaching\DataVisWorkshop\DataVisWorkshop2020\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49259460-8943-4507-8799-7A55BA842EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30BC958-37DC-4DC2-9FC2-C2C4DEE1A695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
